--- a/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (1).xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">HotlineTest Updated</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2019 15:25:53</t>
+    <t xml:space="preserve">11/11/2019 14:39:17</t>
   </si>
 </sst>
 </file>

--- a/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (1).xlsx
@@ -91,10 +91,10 @@
     <t xml:space="preserve">HotlineTest Updated</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/08/2021 12:32:51</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 21:15:58</t>
   </si>
 </sst>
 </file>
